--- a/biology/Zoologie/Bruant_de_Henslow/Bruant_de_Henslow.xlsx
+++ b/biology/Zoologie/Bruant_de_Henslow/Bruant_de_Henslow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammodramus henslowii
 Le Bruant de Henslow (Ammodramus henslowii) est une espèce de passereaux appartenant à la famille des Passerellidae.
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit au Canada et aux États-Unis. Pendant la saison de reproduction il vit dans les prairies avec de l'herbe haute et dense, des arbres morts et une épaisse litière de feuilles. Il est souvent associé avec le pin Pinus palustris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit au Canada et aux États-Unis. Pendant la saison de reproduction il vit dans les prairies avec de l'herbe haute et dense, des arbres morts et une épaisse litière de feuilles. Il est souvent associé avec le pin Pinus palustris.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe deux sous-espèces :
 Ammodramus henslowii henslowii  (Audubon) 1829
